--- a/com.streeteasy/src/test/resources/test_data.xlsx
+++ b/com.streeteasy/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\IdeaProjects\SeleniumBootcamp\com.streeteasy\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D05F2E3-074E-43D0-9643-A7A2E6246C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F84878-CFF3-430A-81B7-32890E62F93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9468" xr2:uid="{C1EDB01E-12C5-48A9-A65C-0C525C3486CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>Sara07071994@</t>
-  </si>
-  <si>
-    <t>tinatebany@gmail.com</t>
-  </si>
-  <si>
-    <t>Qwerty2023/*-</t>
   </si>
 </sst>
 </file>
@@ -419,7 +413,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,18 +438,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3A667887-1648-441C-A1BC-6FF77A7FA02D}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{B2ADC15D-1E51-43BD-8E66-471EA16C3A68}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{353A4E9C-B75C-4E15-994A-8B5648543AC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
